--- a/input/input.xlsx
+++ b/input/input.xlsx
@@ -190,14 +190,14 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="62.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.69"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="6" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="8.67"/>
   </cols>
   <sheetData>
